--- a/Excel/Finanzas-Final.xlsx
+++ b/Excel/Finanzas-Final.xlsx
@@ -282,8 +282,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -291,7 +295,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -427,9 +431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>869040</xdr:colOff>
+      <xdr:colOff>868320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -443,7 +447,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="114480" y="30600"/>
-          <a:ext cx="754560" cy="744120"/>
+          <a:ext cx="753840" cy="743400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -469,9 +473,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>99000</xdr:colOff>
+      <xdr:colOff>98280</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -485,7 +489,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="106560" y="30600"/>
-          <a:ext cx="775440" cy="744120"/>
+          <a:ext cx="774720" cy="743400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -511,9 +515,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>175680</xdr:colOff>
+      <xdr:colOff>174960</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -527,7 +531,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="114480" y="30600"/>
-          <a:ext cx="773640" cy="744120"/>
+          <a:ext cx="772920" cy="743400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -553,9 +557,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>869040</xdr:colOff>
+      <xdr:colOff>868320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -569,7 +573,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="114480" y="30600"/>
-          <a:ext cx="754560" cy="744120"/>
+          <a:ext cx="753840" cy="743400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -684,586 +688,586 @@
   <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="8" style="0" width="5.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="8" style="1" width="5.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>10078</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>13888</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44136</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>10002</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44136</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>13714</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44105</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>10041</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44105</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>14008</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44075</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>9931</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44075</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>12904</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44044</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>9958</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44044</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>12118</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44013</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>10033</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44013</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>11996</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43983</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>10050</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43983</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>12082</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43952</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>10124</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43952</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>11648</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43922</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>10133</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43922</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>11050</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43891</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>10096</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43891</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>10562</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43862</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>10013</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43862</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>10478</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43831</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>10039</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43831</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>10038</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43800</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>10025</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43800</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>10362</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43770</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>9998</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43770</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>10242</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43739</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>9977</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43739</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>9564</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43709</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>9912</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43709</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>8954</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43678</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>9955</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43678</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>9110</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43647</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>9934</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43647</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>8754</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43617</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>9984</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43617</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>8592</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43586</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>10013</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43586</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>8910</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43556</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>10098</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43556</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>8792</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43525</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>10143</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43525</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>9178</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43497</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>10138</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43497</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>8444</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43466</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>10222</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43466</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>8250</v>
       </c>
     </row>
@@ -1293,2433 +1297,2433 @@
   <dimension ref="A1:Y219"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="7" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="7" style="1" width="5.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43466</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>7248</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43497</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>6990</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43525</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>7147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43556</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>6863</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43586</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>6694</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43617</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>6477</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43647</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>6540</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43678</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>6594</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43709</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>6607</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43739</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>6582</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43770</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>6635</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43800</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>6327</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43831</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>6188</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43862</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>5983</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43891</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>6205</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43922</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>6264</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43952</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>6582</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43983</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>6595</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44013</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>6253</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44044</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>6399</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44075</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>6197</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44105</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>6145</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44136</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>5905</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>5949</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43466</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>868</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43497</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>1270</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43525</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>1194</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43556</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>1044</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43586</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>1517</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43617</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>1548</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43647</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>1373</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43678</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>1051</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43709</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>1716</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43739</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>1729</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43770</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>1520</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43800</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>1926</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43831</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>1812</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43862</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>1376</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43891</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>1556</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43922</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>1647</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43952</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>1692</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43983</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>1945</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44013</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>1099</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44044</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>1695</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44075</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>1838</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44105</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>1656</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44136</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>1512</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>1680</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43466</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>783</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43497</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <v>978</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43525</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <v>986</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43556</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <v>728</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43586</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <v>974</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>43617</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <v>1225</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43647</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <v>1059</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43678</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <v>1110</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43709</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <v>812</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43739</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <v>856</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43770</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <v>1131</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43800</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <v>842</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43831</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <v>689</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43862</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <v>834</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43891</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="1" t="n">
         <v>965</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43922</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="1" t="n">
         <v>651</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43952</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="1" t="n">
         <v>1119</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43983</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="1" t="n">
         <v>1298</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44013</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="1" t="n">
         <v>940</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44044</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="1" t="n">
         <v>1014</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44075</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="1" t="n">
         <v>1143</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44105</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="1" t="n">
         <v>767</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44136</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="1" t="n">
         <v>1260</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="1" t="n">
         <v>1100</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43466</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="1" t="n">
         <v>890</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43497</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43525</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" s="1" t="n">
         <v>954</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43556</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="1" t="n">
         <v>654</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43586</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" s="1" t="n">
         <v>457</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43617</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="1" t="n">
         <v>703</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43647</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82" s="1" t="n">
         <v>650</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43678</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" s="1" t="n">
         <v>1236</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43709</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" s="1" t="n">
         <v>918</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43739</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85" s="1" t="n">
         <v>1226</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43770</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86" s="1" t="n">
         <v>1064</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>43800</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87" s="1" t="n">
         <v>1182</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>43831</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88" s="1" t="n">
         <v>1269</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43862</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" s="1" t="n">
         <v>986</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43891</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" s="1" t="n">
         <v>943</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>43922</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" s="1" t="n">
         <v>1311</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43952</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92" s="1" t="n">
         <v>1321</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43983</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93" s="1" t="n">
         <v>773</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44013</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94" s="1" t="n">
         <v>621</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44044</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95" s="1" t="n">
         <v>446</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>44075</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96" s="1" t="n">
         <v>663</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44105</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" s="1" t="n">
         <v>530</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>44136</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" s="1" t="n">
         <v>498</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99" s="1" t="n">
         <v>635</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43466</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100" s="1" t="n">
         <v>237</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43497</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" s="1" t="n">
         <v>160</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43525</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102" s="1" t="n">
         <v>161</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43556</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="1" t="n">
         <v>222</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>43586</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" s="1" t="n">
         <v>294</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>43617</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105" s="1" t="n">
         <v>219</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43647</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106" s="1" t="n">
         <v>160</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43678</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" s="1" t="n">
         <v>164</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43709</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108" s="1" t="n">
         <v>208</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43739</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="1" t="n">
         <v>303</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43770</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110" s="1" t="n">
         <v>191</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43800</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111" s="1" t="n">
         <v>262</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43831</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112" s="1" t="n">
         <v>190</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43862</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113" s="1" t="n">
         <v>208</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43891</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114" s="1" t="n">
         <v>279</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43922</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115" s="1" t="n">
         <v>186</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43952</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116" s="1" t="n">
         <v>177</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43983</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117" s="1" t="n">
         <v>136</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>44013</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118" s="1" t="n">
         <v>124</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>44044</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119" s="1" t="n">
         <v>173</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>44075</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120" s="1" t="n">
         <v>194</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>44105</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121" s="1" t="n">
         <v>237</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>44136</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122" s="1" t="n">
         <v>317</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123" s="1" t="n">
         <v>217</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>43466</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>43497</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>43525</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>43556</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43586</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43617</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43647</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43678</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43709</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43739</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43770</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C134" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>43800</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C135" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>43831</v>
       </c>
-      <c r="C136" s="0" t="n">
+      <c r="C136" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>43862</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C137" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>43891</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>43922</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>43952</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>43983</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>44013</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C142" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>44044</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>44075</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C144" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>44105</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C145" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>44136</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C147" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43466</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148" s="1" t="n">
         <v>417</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43497</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C149" s="1" t="n">
         <v>423</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43525</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C150" s="1" t="n">
         <v>381</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>43556</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C151" s="1" t="n">
         <v>397</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>43586</v>
       </c>
-      <c r="C152" s="0" t="n">
+      <c r="C152" s="1" t="n">
         <v>536</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>43617</v>
       </c>
-      <c r="C153" s="0" t="n">
+      <c r="C153" s="1" t="n">
         <v>447</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>43647</v>
       </c>
-      <c r="C154" s="0" t="n">
+      <c r="C154" s="1" t="n">
         <v>452</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>43678</v>
       </c>
-      <c r="C155" s="0" t="n">
+      <c r="C155" s="1" t="n">
         <v>421</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>43709</v>
       </c>
-      <c r="C156" s="0" t="n">
+      <c r="C156" s="1" t="n">
         <v>487</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>43739</v>
       </c>
-      <c r="C157" s="0" t="n">
+      <c r="C157" s="1" t="n">
         <v>403</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>43770</v>
       </c>
-      <c r="C158" s="0" t="n">
+      <c r="C158" s="1" t="n">
         <v>561</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>43800</v>
       </c>
-      <c r="C159" s="0" t="n">
+      <c r="C159" s="1" t="n">
         <v>546</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43831</v>
       </c>
-      <c r="C160" s="0" t="n">
+      <c r="C160" s="1" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43862</v>
       </c>
-      <c r="C161" s="0" t="n">
+      <c r="C161" s="1" t="n">
         <v>444</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43891</v>
       </c>
-      <c r="C162" s="0" t="n">
+      <c r="C162" s="1" t="n">
         <v>479</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43922</v>
       </c>
-      <c r="C163" s="0" t="n">
+      <c r="C163" s="1" t="n">
         <v>480</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43952</v>
       </c>
-      <c r="C164" s="0" t="n">
+      <c r="C164" s="1" t="n">
         <v>540</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43983</v>
       </c>
-      <c r="C165" s="0" t="n">
+      <c r="C165" s="1" t="n">
         <v>454</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>44013</v>
       </c>
-      <c r="C166" s="0" t="n">
+      <c r="C166" s="1" t="n">
         <v>419</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>44044</v>
       </c>
-      <c r="C167" s="0" t="n">
+      <c r="C167" s="1" t="n">
         <v>509</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>44075</v>
       </c>
-      <c r="C168" s="0" t="n">
+      <c r="C168" s="1" t="n">
         <v>482</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>44105</v>
       </c>
-      <c r="C169" s="0" t="n">
+      <c r="C169" s="1" t="n">
         <v>479</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>44136</v>
       </c>
-      <c r="C170" s="0" t="n">
+      <c r="C170" s="1" t="n">
         <v>498</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="C171" s="0" t="n">
+      <c r="C171" s="1" t="n">
         <v>442</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>43466</v>
       </c>
-      <c r="C172" s="0" t="n">
+      <c r="C172" s="1" t="n">
         <v>296</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>43497</v>
       </c>
-      <c r="C173" s="0" t="n">
+      <c r="C173" s="1" t="n">
         <v>306</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>43525</v>
       </c>
-      <c r="C174" s="0" t="n">
+      <c r="C174" s="1" t="n">
         <v>227</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>43556</v>
       </c>
-      <c r="C175" s="0" t="n">
+      <c r="C175" s="1" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43586</v>
       </c>
-      <c r="C176" s="0" t="n">
+      <c r="C176" s="1" t="n">
         <v>267</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43617</v>
       </c>
-      <c r="C177" s="0" t="n">
+      <c r="C177" s="1" t="n">
         <v>302</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43647</v>
       </c>
-      <c r="C178" s="0" t="n">
+      <c r="C178" s="1" t="n">
         <v>282</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43678</v>
       </c>
-      <c r="C179" s="0" t="n">
+      <c r="C179" s="1" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43709</v>
       </c>
-      <c r="C180" s="0" t="n">
+      <c r="C180" s="1" t="n">
         <v>263</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="A181" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43739</v>
       </c>
-      <c r="C181" s="0" t="n">
+      <c r="C181" s="1" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43770</v>
       </c>
-      <c r="C182" s="0" t="n">
+      <c r="C182" s="1" t="n">
         <v>301</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>43800</v>
       </c>
-      <c r="C183" s="0" t="n">
+      <c r="C183" s="1" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>43831</v>
       </c>
-      <c r="C184" s="0" t="n">
+      <c r="C184" s="1" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="A185" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>43862</v>
       </c>
-      <c r="C185" s="0" t="n">
+      <c r="C185" s="1" t="n">
         <v>266</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="A186" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>43891</v>
       </c>
-      <c r="C186" s="0" t="n">
+      <c r="C186" s="1" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="A187" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>43922</v>
       </c>
-      <c r="C187" s="0" t="n">
+      <c r="C187" s="1" t="n">
         <v>297</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+      <c r="A188" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>43952</v>
       </c>
-      <c r="C188" s="0" t="n">
+      <c r="C188" s="1" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="A189" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>43983</v>
       </c>
-      <c r="C189" s="0" t="n">
+      <c r="C189" s="1" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="A190" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>44013</v>
       </c>
-      <c r="C190" s="0" t="n">
+      <c r="C190" s="1" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+      <c r="A191" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>44044</v>
       </c>
-      <c r="C191" s="0" t="n">
+      <c r="C191" s="1" t="n">
         <v>290</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="A192" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>44075</v>
       </c>
-      <c r="C192" s="0" t="n">
+      <c r="C192" s="1" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="A193" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>44105</v>
       </c>
-      <c r="C193" s="0" t="n">
+      <c r="C193" s="1" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+      <c r="A194" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>44136</v>
       </c>
-      <c r="C194" s="0" t="n">
+      <c r="C194" s="1" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="A195" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="C195" s="0" t="n">
+      <c r="C195" s="1" t="n">
         <v>289</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="A196" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>43466</v>
       </c>
-      <c r="C196" s="0" t="n">
+      <c r="C196" s="1" t="n">
         <v>783</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="A197" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>43497</v>
       </c>
-      <c r="C197" s="0" t="n">
+      <c r="C197" s="1" t="n">
         <v>890</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+      <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>43525</v>
       </c>
-      <c r="C198" s="0" t="n">
+      <c r="C198" s="1" t="n">
         <v>687</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+      <c r="A199" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>43556</v>
       </c>
-      <c r="C199" s="0" t="n">
+      <c r="C199" s="1" t="n">
         <v>722</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="A200" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>43586</v>
       </c>
-      <c r="C200" s="0" t="n">
+      <c r="C200" s="1" t="n">
         <v>925</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="A201" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>43617</v>
       </c>
-      <c r="C201" s="0" t="n">
+      <c r="C201" s="1" t="n">
         <v>1045</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="A202" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>43647</v>
       </c>
-      <c r="C202" s="0" t="n">
+      <c r="C202" s="1" t="n">
         <v>641</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="A203" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>43678</v>
       </c>
-      <c r="C203" s="0" t="n">
+      <c r="C203" s="1" t="n">
         <v>642</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="A204" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>43709</v>
       </c>
-      <c r="C204" s="0" t="n">
+      <c r="C204" s="1" t="n">
         <v>813</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="A205" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>43739</v>
       </c>
-      <c r="C205" s="0" t="n">
+      <c r="C205" s="1" t="n">
         <v>594</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="A206" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>43770</v>
       </c>
-      <c r="C206" s="0" t="n">
+      <c r="C206" s="1" t="n">
         <v>703</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="A207" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>43800</v>
       </c>
-      <c r="C207" s="0" t="n">
+      <c r="C207" s="1" t="n">
         <v>927</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="A208" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>43831</v>
       </c>
-      <c r="C208" s="0" t="n">
+      <c r="C208" s="1" t="n">
         <v>980</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="A209" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>43862</v>
       </c>
-      <c r="C209" s="0" t="n">
+      <c r="C209" s="1" t="n">
         <v>1002</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="A210" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>43891</v>
       </c>
-      <c r="C210" s="0" t="n">
+      <c r="C210" s="1" t="n">
         <v>692</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="A211" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>43922</v>
       </c>
-      <c r="C211" s="0" t="n">
+      <c r="C211" s="1" t="n">
         <v>607</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="A212" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>43952</v>
       </c>
-      <c r="C212" s="0" t="n">
+      <c r="C212" s="1" t="n">
         <v>855</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="A213" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>43983</v>
       </c>
-      <c r="C213" s="0" t="n">
+      <c r="C213" s="1" t="n">
         <v>574</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="A214" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>44013</v>
       </c>
-      <c r="C214" s="0" t="n">
+      <c r="C214" s="1" t="n">
         <v>767</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="A215" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>44044</v>
       </c>
-      <c r="C215" s="0" t="n">
+      <c r="C215" s="1" t="n">
         <v>811</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="A216" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>44075</v>
       </c>
-      <c r="C216" s="0" t="n">
+      <c r="C216" s="1" t="n">
         <v>888</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="A217" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>44105</v>
       </c>
-      <c r="C217" s="0" t="n">
+      <c r="C217" s="1" t="n">
         <v>934</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="A218" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>44136</v>
       </c>
-      <c r="C218" s="0" t="n">
+      <c r="C218" s="1" t="n">
         <v>801</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="A219" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>44166</v>
       </c>
-      <c r="C219" s="0" t="n">
+      <c r="C219" s="1" t="n">
         <v>1015</v>
       </c>
     </row>
@@ -3754,319 +3758,319 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="0" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="17" style="0" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="7.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="5.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="1" width="5.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="4.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="17" style="1" width="5.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="7.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>11000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>11000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>11000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>11000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>11000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>11000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>11000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>11000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>11000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>11000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>11000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>11000</v>
       </c>
     </row>
@@ -4101,806 +4105,806 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="2" style="0" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="2" style="1" width="6.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="Q4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="R4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="S4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="T4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="U4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="W4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="X4" s="1" t="n">
         <v>6500</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Y4" s="1" t="n">
         <v>6500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="O5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="Q5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="R5" s="0" t="n">
+      <c r="R5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="S5" s="0" t="n">
+      <c r="S5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="T5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="U5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="W5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Y5" s="1" t="n">
         <v>1200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="Q6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="U6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="W6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="X6" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Y6" s="1" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="Q7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="R7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="S7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="U7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="W7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Y7" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="U8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="W8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="X8" s="1" t="n">
         <v>3500</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Y8" s="1" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="T9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="U9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="W9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Y9" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="M10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="R10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="S10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="U10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="W10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="X10" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Y10" s="1" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="M11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="R11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="S11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="T11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="U11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="W11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="X11" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Y11" s="1" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="R12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="S12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="T12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="U12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="W12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="X12" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Y12" s="1" t="n">
         <v>200</v>
       </c>
     </row>
